--- a/biology/Zoologie/Cymatiidae/Cymatiidae.xlsx
+++ b/biology/Zoologie/Cymatiidae/Cymatiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cymatiidae sont une famille de mollusques de la classe des gastéropodes, au sein de l'ordre des Littorinimorpha.
 Les genres qui composent cette famille ont longtemps été rangés parmi les Ranellidae. 
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 mai 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 mai 2019) :
 genre Argobuccinum Herrmannsen, 1846
 genre Austrosassia Finlay, 1931
 genre Austrotriton Cossmann, 1903
